--- a/publipostage2/04yvax419/liste_essais_cliniques_identifies_04yvax419.xlsx
+++ b/publipostage2/04yvax419/liste_essais_cliniques_identifies_04yvax419.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/04yvax419/liste_essais_cliniques_identifies_04yvax419.xlsx
+++ b/publipostage2/04yvax419/liste_essais_cliniques_identifies_04yvax419.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,36 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT02922114</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Comparison of the Clinical Examination and the Joint Ultrasonography in the Evaluation of Disease Activity in Systemic Lupus Patients</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>LUPUS</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -556,36 +566,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT02923297</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>GALIG Gene Expression in Parkinson's Disease</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>GALIGPARK</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -604,36 +619,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT02185989</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Early Rehabilitation Combining Daily Electrical Muscle Stimulation and Early Bedside Cycling Exercise, Compared to Early Standard Rehabilitation. A Randomized, Assessor-blinded, Single-center Study in Intensive Care Patients.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>PROMOREA1</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -652,36 +672,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT03095690</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Determinants of Volumetric Bone Mineral Density at the Tibia and Radius and it's Relationship With Osteoporotic Fractures in Idiopathic Parkinson's Disease</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>DOPPA</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -700,36 +725,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT03095677</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Acute and Chronic Effects of Dynamic Apnea in Healthy Untrained Subjects</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>APNEX</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -748,36 +778,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT03316625</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Reference Curve on Bone Mineral Density in Young Adult: French Multicenter Study</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>COURDO</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -796,36 +831,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT03299894</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Usefulness of Routine qSOFA Calculation at Triage to Fasten Antimicrobial Administration in Patients With Bacterial Infection in the Emergency Department: a Quasi-experimental Study</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>qSOFAST</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -844,36 +884,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT03497078</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Comparison of Image Quality Between New Collimator LEHRS (General Electric - GE Healthcare) vs Siemens LEHR on Bone Scintigraphy</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>LEHRS</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -892,36 +937,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT03423004</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Comparative Study of Molecular Markers in Cutaneous Inflammation Between Psoriatic Lesional Skin and Healthy Non-lesional Skin</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>EMIP</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -940,36 +990,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT03470116</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>MILAR, is a Controlled, Randomised, Comparative, Prospective, Multi-center, Superiority French Clinical Trial Comparing the MacGrath MAC Videolaryngoscope and the MacIntosh Laryngoscope for Oro-tracheal Intubation by Patients With Less Than 2 Criteria of Difficult Intubation in Elective Surgery.</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>MILAR</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -988,36 +1043,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT03398525</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Effect of a Musical Intervention in the Intensive Care Unit During the Implantation of a Central Venous Access or a Dialysis Catheter: A Prospective, Randomized Pilot Study</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>MUSIC-CAT</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1036,36 +1096,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT03479047</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Mechanical Ventilation Weaning Prediction Improved by Diaphragmatic Ultrasound Associated With the Rapid Shallow Breathing Index</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>CODEX</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -1084,28 +1149,30 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT03829293</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>High-Flow Nasal Oxygenation Versus Standard Oxygenation in Gastrointestinal Endoscopy With Sedation. A Prospective Multicenter Randomized Study</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>ODEPHI</t>
         </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -1113,7 +1180,10 @@
       <c r="K14" t="b">
         <v>1</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1132,36 +1202,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT03689309</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>High Flow Oxygen During Spontaneous Breathing Trial in Patients With High Weaning Risk Failure: Impact on the Weaning Course at D7 From the First Spontaneous Breathing Trial. A Pilot Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>ObiWEAN</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1180,36 +1255,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT04137302</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Administration of Hydrocortisone in Young Healthy Male Volunteers: Determination of Biomarkers for Distinguishing Between Local and Systemic Pathways</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>H-CORT</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1228,36 +1308,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT03849508</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Randomized, Double-blind, Controlled Clinical Trial for Comparison of Continuous Phenylephrine Versus Norepinephrine Infusion for Maintenance of Hemodynamic Stability During Cesarean Section Under Spinal Anesthesia</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>PHENAD</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1276,36 +1361,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT03586492</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>SPECT Myocardial Perfusion Reserve Using a Cadmium Zinc Telluride (CZT) Camera in Cardiovascular Risk Stratification and Ischemia</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>CFR-OR</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -1324,36 +1414,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT04609969</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Diagnostic Performance Evaluation of a Novel SARS-CoV-2 (COVID-19) Antigen Detection Test on Nasopharyngeal Specimens i</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>COVID-VIRO</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -1372,36 +1467,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT03568695</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Detection of Chlamydia Trachomatis, Neisseria Gonorrhoeae and Mycoplasma Genitalium by Real-time Multiplex Polymerase Chain Reaction After Pooling Pharyngeal, Anorectal and Urinary Samples, in Men Who Have Sex With Men</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>ISTPOOL</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -1420,36 +1520,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT04757844</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>The Effects of Different Attentional Focus During Walking on Prefrontal Cortical Activation in Young Healthy Adults</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>AttNIRS</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1468,36 +1573,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT04045444</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Physical Activity Level and Cerebral Oxygenation During Gait in Old People</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>OXYSENIOR</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1516,36 +1626,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT05050968</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Effects of Controlled Physical Activity on the Fitness, Body Composition and Quality of Life of Obese Women Undergoing Bariatric Surgery</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>ACTIBARIA</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1564,36 +1679,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT04704349</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Latest Imaging SPECT System Evaluation Phase 1</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>LISSE1</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -1612,36 +1732,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT04738851</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>ARTHEMIRS: Assessment of Brain Activation During Different Mirror Therapy Tasks Using fNIRS Technology</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>ARTHEMIRS</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1660,36 +1785,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT04269382</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Prospective, Multi-center Evaluation of the Accuracy of Non-invasive Measurement of Blood Pressure Using an Arm, Calf and Finger Cuff.</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>PANIC</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1708,36 +1838,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT04629937</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Clinical Evaluation of a Multipurpose CZT Camera in Gated Tomographic Radionuclide Angiography: a Head to Head Comparison With a Cardiac Dedicated CZT Device</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>STARGAC</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1756,36 +1891,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT03326830</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Prehospital High-Flow Nasal Oxygen Therapy in Patients With Acute Hypoxemic Respiratory Failure: A Randomized, Open-label, Bi-center, Pilot Study</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>PRHOXY-1</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1804,28 +1944,30 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT04750720</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Study of the Kinetics of COVID-19 Antibodies for 24 Months in Patients With Confirmed SARS-CoV-2 Infection According to the Clinical Severity of the Infection.</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>ABCOVID</t>
         </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
@@ -1833,7 +1975,10 @@
       <c r="K29" t="b">
         <v>1</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1852,36 +1997,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT02247752</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Follow-up of HBsAg Inactive Carriers Study</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>PIBAC</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1900,36 +2050,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT04952766</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Study Evaluating SARS-CoV-2 (COVID-19) Humoral Response After BNT162b2 Vaccine in Immunocompromised Adults Compared to Healthy Adults</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>EREVA</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1948,36 +2103,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT05428917</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Evaluation of the Impact of Laterality on Cerebral Activation During a Motor Task of the Upper Limb Using fNIRS Technology in Healthy Subjects</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>Lateralinirs</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1996,36 +2156,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT05298943</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Relation Between Cortical Activation and Graded Force Level During Robot-assistance Walking in Healthy People : A Functional Near-infrared Spectroscopy Neuroimaging Study.</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>ExoNIRS</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2044,28 +2209,30 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT04363463</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Impact of Prone Position in Patients Under Spontaneous Breathing on Intubation or Non-invasive Ventilation or Death Incidence During COVID-19 Acute Respiratory Distress</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>PROVID-19</t>
         </is>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
       </c>
       <c r="J34" t="b">
         <v>1</v>
@@ -2073,7 +2240,10 @@
       <c r="K34" t="b">
         <v>1</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2092,36 +2262,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT04624568</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Papilocare®: Effects on Regression of Histologically Confirmed Cervical Intraepithelial Lesions 1 and Tolerance.</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>PAPILOCARE</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
         <v>1</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2140,36 +2315,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT04882930</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Reproducibility of fNIRS Parameters During Walking in Stroke Patients and Healthy Subjects</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>REPROXY</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2188,36 +2368,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT03400982</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Reference Curve on Bone Mineral Density in Men</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>COURDO2</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -2236,36 +2421,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT05306249</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Effects of Cannabidiol (CBD) on the Activation of Autophagy and Inflammation Genes, Functional Consequences in Virologically Controlled HIV-infected Patients</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>GALIG-CBD</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2284,36 +2474,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT05669157</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>X-rays Trauma Request's by the Triage And Intake Nurse Intake and Referral Nurse: X-TRAIN Study</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>DARIO</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2332,36 +2527,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT05469841</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Pupillometry and Nociception Level Index (NOL-index) for the Evaluation of Pain in Intensive Care Unit. Prospective Study in Two Centers</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>NOCI-ICU</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2380,36 +2580,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT05073874</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Effects of Different Attentional Focus During Walking on Prefrontal Cortical Activation in Older Adults and Patients With Parkinson's Disease</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>AttPark</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2428,36 +2633,41 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT05916274</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Pro-inflammatory Role of Extracellular DNA in Inflammatory Bowel Disease in Children: Study of the cGAS-STING Pathway</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>ROXANE</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2476,36 +2686,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT06025370</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Measurement of Pressures Generated During Different Prone Positions in Healthy Volunteers</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>HEALTHY-PRONE</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2524,36 +2739,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT05872438</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Evaluation of Multisite Sampling to Detect C. Trachomatis or N. Gonorrheae Compared With Vaginal Sampling in Women at Risk for Sexually Transmitted Infections (STI)</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>SIST'RS</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -2572,36 +2792,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT05950178</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Validation of Apnea Test Conducted Using High-flow Oxygen Therapy in Patients With Clinical Brain Death</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>APNEAFLOW</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -2620,36 +2845,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT06296225</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Effect of Vibratory Tendon Stimulation on Muscle Fatigue in the Acute Post-stroke Phase : Vibramain1</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>VIBRAMAIN1</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2668,36 +2898,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT05433168</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Randomized Cross-over Pilot Study Evaluating the Effectiveness of Shiatsu on Fatigue in Patients With Axial Spondyloarthritis</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>SFASPA</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2716,36 +2951,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT05952180</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Effect of Virtual Reality Combined With Cycloergometer Versus Conventional Cycloergometer on Distance for ICU Non-sedated Participants: Prospective Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>CYCLOREA</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2764,36 +3004,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT04446559</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Effect of " Sitting in a Chair " Versus " Conventional Semi-recumbent In-bed Position " on the Oxygenation Level for ICU Non-sedated Patients</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>FALCON</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>

--- a/publipostage2/04yvax419/liste_essais_cliniques_identifies_04yvax419.xlsx
+++ b/publipostage2/04yvax419/liste_essais_cliniques_identifies_04yvax419.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>orange</t>

--- a/publipostage2/04yvax419/liste_essais_cliniques_identifies_04yvax419.xlsx
+++ b/publipostage2/04yvax419/liste_essais_cliniques_identifies_04yvax419.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
-  </si>
-  <si>
-    <t>📕</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>-3</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/04yvax419/liste_essais_cliniques_identifies_04yvax419.xlsx
+++ b/publipostage2/04yvax419/liste_essais_cliniques_identifies_04yvax419.xlsx
@@ -67,7 +67,7 @@
     <t>-3</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>orange</t>
@@ -79,16 +79,16 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
   </si>
   <si>
     <t>NCT02922114</t>

--- a/publipostage2/04yvax419/liste_essais_cliniques_identifies_04yvax419.xlsx
+++ b/publipostage2/04yvax419/liste_essais_cliniques_identifies_04yvax419.xlsx
@@ -67,12 +67,12 @@
     <t>3: résultats postés ou publiés après les 36 mois</t>
   </si>
   <si>
+    <t>NCT02923297</t>
+  </si>
+  <si>
     <t>NCT02922114</t>
   </si>
   <si>
-    <t>NCT02923297</t>
-  </si>
-  <si>
     <t>NCT02185989</t>
   </si>
   <si>
@@ -88,129 +88,129 @@
     <t>NCT03299894</t>
   </si>
   <si>
+    <t>NCT03829293</t>
+  </si>
+  <si>
+    <t>NCT03470116</t>
+  </si>
+  <si>
     <t>NCT03497078</t>
   </si>
   <si>
+    <t>NCT03479047</t>
+  </si>
+  <si>
     <t>NCT03423004</t>
   </si>
   <si>
-    <t>NCT03470116</t>
-  </si>
-  <si>
     <t>NCT03398525</t>
   </si>
   <si>
-    <t>NCT03479047</t>
-  </si>
-  <si>
-    <t>NCT03829293</t>
+    <t>NCT03849508</t>
   </si>
   <si>
     <t>NCT03689309</t>
   </si>
   <si>
+    <t>NCT04609969</t>
+  </si>
+  <si>
+    <t>NCT03568695</t>
+  </si>
+  <si>
     <t>NCT04137302</t>
   </si>
   <si>
-    <t>NCT03849508</t>
-  </si>
-  <si>
     <t>NCT03586492</t>
   </si>
   <si>
-    <t>NCT04609969</t>
-  </si>
-  <si>
-    <t>NCT03568695</t>
+    <t>NCT04704349</t>
+  </si>
+  <si>
+    <t>NCT04629937</t>
+  </si>
+  <si>
+    <t>NCT05050968</t>
+  </si>
+  <si>
+    <t>NCT04269382</t>
+  </si>
+  <si>
+    <t>NCT04738851</t>
+  </si>
+  <si>
+    <t>NCT04045444</t>
   </si>
   <si>
     <t>NCT04757844</t>
   </si>
   <si>
-    <t>NCT04045444</t>
-  </si>
-  <si>
-    <t>NCT05050968</t>
-  </si>
-  <si>
-    <t>NCT04704349</t>
-  </si>
-  <si>
-    <t>NCT04738851</t>
-  </si>
-  <si>
-    <t>NCT04269382</t>
-  </si>
-  <si>
-    <t>NCT04629937</t>
+    <t>NCT04750720</t>
+  </si>
+  <si>
+    <t>NCT05428917</t>
+  </si>
+  <si>
+    <t>NCT04363463</t>
+  </si>
+  <si>
+    <t>NCT02247752</t>
+  </si>
+  <si>
+    <t>NCT05298943</t>
+  </si>
+  <si>
+    <t>NCT04952766</t>
   </si>
   <si>
     <t>NCT03326830</t>
   </si>
   <si>
-    <t>NCT04750720</t>
-  </si>
-  <si>
-    <t>NCT02247752</t>
-  </si>
-  <si>
-    <t>NCT04952766</t>
-  </si>
-  <si>
-    <t>NCT05428917</t>
-  </si>
-  <si>
-    <t>NCT05298943</t>
-  </si>
-  <si>
-    <t>NCT04363463</t>
+    <t>NCT05306249</t>
+  </si>
+  <si>
+    <t>NCT05669157</t>
+  </si>
+  <si>
+    <t>NCT04882930</t>
+  </si>
+  <si>
+    <t>NCT03400982</t>
   </si>
   <si>
     <t>NCT04624568</t>
   </si>
   <si>
-    <t>NCT04882930</t>
-  </si>
-  <si>
-    <t>NCT03400982</t>
-  </si>
-  <si>
-    <t>NCT05306249</t>
-  </si>
-  <si>
-    <t>NCT05669157</t>
-  </si>
-  <si>
     <t>NCT05469841</t>
   </si>
   <si>
+    <t>NCT05950178</t>
+  </si>
+  <si>
+    <t>NCT05433168</t>
+  </si>
+  <si>
+    <t>NCT04446559</t>
+  </si>
+  <si>
+    <t>NCT06025370</t>
+  </si>
+  <si>
+    <t>NCT05916274</t>
+  </si>
+  <si>
+    <t>NCT05872438</t>
+  </si>
+  <si>
     <t>NCT05073874</t>
   </si>
   <si>
-    <t>NCT05916274</t>
-  </si>
-  <si>
-    <t>NCT06025370</t>
-  </si>
-  <si>
-    <t>NCT05872438</t>
-  </si>
-  <si>
-    <t>NCT05950178</t>
-  </si>
-  <si>
     <t>NCT06296225</t>
   </si>
   <si>
-    <t>NCT05433168</t>
-  </si>
-  <si>
     <t>NCT05952180</t>
   </si>
   <si>
-    <t>NCT04446559</t>
-  </si>
-  <si>
     <t>2015</t>
   </si>
   <si>
@@ -241,12 +241,12 @@
     <t>2024</t>
   </si>
   <si>
+    <t>GALIG Gene Expression in Parkinson's Disease</t>
+  </si>
+  <si>
     <t>Comparison of the Clinical Examination and the Joint Ultrasonography in the Evaluation of Disease Activity in Systemic Lupus Patients</t>
   </si>
   <si>
-    <t>GALIG Gene Expression in Parkinson's Disease</t>
-  </si>
-  <si>
     <t>Early Rehabilitation Combining Daily Electrical Muscle Stimulation and Early Bedside Cycling Exercise, Compared to Early Standard Rehabilitation. A Randomized, Assessor-blinded, Single-center Study in Intensive Care Patients.</t>
   </si>
   <si>
@@ -262,135 +262,135 @@
     <t>Usefulness of Routine qSOFA Calculation at Triage to Fasten Antimicrobial Administration in Patients With Bacterial Infection in the Emergency Department: a Quasi-experimental Study</t>
   </si>
   <si>
+    <t>High-Flow Nasal Oxygenation Versus Standard Oxygenation in Gastrointestinal Endoscopy With Sedation. A Prospective Multicenter Randomized Study</t>
+  </si>
+  <si>
+    <t>MILAR, is a Controlled, Randomised, Comparative, Prospective, Multi-center, Superiority French Clinical Trial Comparing the MacGrath MAC Videolaryngoscope and the MacIntosh Laryngoscope for Oro-tracheal Intubation by Patients With Less Than 2 Criteria of Difficult Intubation in Elective Surgery.</t>
+  </si>
+  <si>
     <t>Comparison of Image Quality Between New Collimator LEHRS (General Electric - GE Healthcare) vs Siemens LEHR on Bone Scintigraphy</t>
   </si>
   <si>
+    <t>Mechanical Ventilation Weaning Prediction Improved by Diaphragmatic Ultrasound Associated With the Rapid Shallow Breathing Index</t>
+  </si>
+  <si>
     <t>Comparative Study of Molecular Markers in Cutaneous Inflammation Between Psoriatic Lesional Skin and Healthy Non-lesional Skin</t>
   </si>
   <si>
-    <t>MILAR, is a Controlled, Randomised, Comparative, Prospective, Multi-center, Superiority French Clinical Trial Comparing the MacGrath MAC Videolaryngoscope and the MacIntosh Laryngoscope for Oro-tracheal Intubation by Patients With Less Than 2 Criteria of Difficult Intubation in Elective Surgery.</t>
-  </si>
-  <si>
     <t>Effect of a Musical Intervention in the Intensive Care Unit During the Implantation of a Central Venous Access or a Dialysis Catheter: A Prospective, Randomized Pilot Study</t>
   </si>
   <si>
-    <t>Mechanical Ventilation Weaning Prediction Improved by Diaphragmatic Ultrasound Associated With the Rapid Shallow Breathing Index</t>
-  </si>
-  <si>
-    <t>High-Flow Nasal Oxygenation Versus Standard Oxygenation in Gastrointestinal Endoscopy With Sedation. A Prospective Multicenter Randomized Study</t>
+    <t>Randomized, Double-blind, Controlled Clinical Trial for Comparison of Continuous Phenylephrine Versus Norepinephrine Infusion for Maintenance of Hemodynamic Stability During Cesarean Section Under Spinal Anesthesia</t>
   </si>
   <si>
     <t>High Flow Oxygen During Spontaneous Breathing Trial in Patients With High Weaning Risk Failure: Impact on the Weaning Course at D7 From the First Spontaneous Breathing Trial. A Pilot Randomized Controlled Trial</t>
   </si>
   <si>
+    <t>Diagnostic Performance Evaluation of a Novel SARS-CoV-2 (COVID-19) Antigen Detection Test on Nasopharyngeal Specimens i</t>
+  </si>
+  <si>
+    <t>Detection of Chlamydia Trachomatis, Neisseria Gonorrhoeae and Mycoplasma Genitalium by Real-time Multiplex Polymerase Chain Reaction After Pooling Pharyngeal, Anorectal and Urinary Samples, in Men Who Have Sex With Men</t>
+  </si>
+  <si>
     <t>Administration of Hydrocortisone in Young Healthy Male Volunteers: Determination of Biomarkers for Distinguishing Between Local and Systemic Pathways</t>
   </si>
   <si>
-    <t>Randomized, Double-blind, Controlled Clinical Trial for Comparison of Continuous Phenylephrine Versus Norepinephrine Infusion for Maintenance of Hemodynamic Stability During Cesarean Section Under Spinal Anesthesia</t>
-  </si>
-  <si>
     <t>SPECT Myocardial Perfusion Reserve Using a Cadmium Zinc Telluride (CZT) Camera in Cardiovascular Risk Stratification and Ischemia</t>
   </si>
   <si>
-    <t>Diagnostic Performance Evaluation of a Novel SARS-CoV-2 (COVID-19) Antigen Detection Test on Nasopharyngeal Specimens i</t>
-  </si>
-  <si>
-    <t>Detection of Chlamydia Trachomatis, Neisseria Gonorrhoeae and Mycoplasma Genitalium by Real-time Multiplex Polymerase Chain Reaction After Pooling Pharyngeal, Anorectal and Urinary Samples, in Men Who Have Sex With Men</t>
+    <t>Latest Imaging SPECT System Evaluation Phase 1</t>
+  </si>
+  <si>
+    <t>Clinical Evaluation of a Multipurpose CZT Camera in Gated Tomographic Radionuclide Angiography: a Head to Head Comparison With a Cardiac Dedicated CZT Device</t>
+  </si>
+  <si>
+    <t>Effects of Controlled Physical Activity on the Fitness, Body Composition and Quality of Life of Obese Women Undergoing Bariatric Surgery</t>
+  </si>
+  <si>
+    <t>Prospective, Multi-center Evaluation of the Accuracy of Non-invasive Measurement of Blood Pressure Using an Arm, Calf and Finger Cuff.</t>
+  </si>
+  <si>
+    <t>ARTHEMIRS: Assessment of Brain Activation During Different Mirror Therapy Tasks Using fNIRS Technology</t>
+  </si>
+  <si>
+    <t>Physical Activity Level and Cerebral Oxygenation During Gait in Old People</t>
   </si>
   <si>
     <t>The Effects of Different Attentional Focus During Walking on Prefrontal Cortical Activation in Young Healthy Adults</t>
   </si>
   <si>
-    <t>Physical Activity Level and Cerebral Oxygenation During Gait in Old People</t>
-  </si>
-  <si>
-    <t>Effects of Controlled Physical Activity on the Fitness, Body Composition and Quality of Life of Obese Women Undergoing Bariatric Surgery</t>
-  </si>
-  <si>
-    <t>Latest Imaging SPECT System Evaluation Phase 1</t>
-  </si>
-  <si>
-    <t>ARTHEMIRS: Assessment of Brain Activation During Different Mirror Therapy Tasks Using fNIRS Technology</t>
-  </si>
-  <si>
-    <t>Prospective, Multi-center Evaluation of the Accuracy of Non-invasive Measurement of Blood Pressure Using an Arm, Calf and Finger Cuff.</t>
-  </si>
-  <si>
-    <t>Clinical Evaluation of a Multipurpose CZT Camera in Gated Tomographic Radionuclide Angiography: a Head to Head Comparison With a Cardiac Dedicated CZT Device</t>
+    <t>Study of the Kinetics of COVID-19 Antibodies for 24 Months in Patients With Confirmed SARS-CoV-2 Infection According to the Clinical Severity of the Infection.</t>
+  </si>
+  <si>
+    <t>Evaluation of the Impact of Laterality on Cerebral Activation During a Motor Task of the Upper Limb Using fNIRS Technology in Healthy Subjects</t>
+  </si>
+  <si>
+    <t>Impact of Prone Position in Patients Under Spontaneous Breathing on Intubation or Non-invasive Ventilation or Death Incidence During COVID-19 Acute Respiratory Distress</t>
+  </si>
+  <si>
+    <t>Follow-up of HBsAg Inactive Carriers Study</t>
+  </si>
+  <si>
+    <t>Relation Between Cortical Activation and Graded Force Level During Robot-assistance Walking in Healthy People : A Functional Near-infrared Spectroscopy Neuroimaging Study.</t>
+  </si>
+  <si>
+    <t>Study Evaluating SARS-CoV-2 (COVID-19) Humoral Response After BNT162b2 Vaccine in Immunocompromised Adults Compared to Healthy Adults</t>
   </si>
   <si>
     <t>Prehospital High-Flow Nasal Oxygen Therapy in Patients With Acute Hypoxemic Respiratory Failure: A Randomized, Open-label, Bi-center, Pilot Study</t>
   </si>
   <si>
-    <t>Study of the Kinetics of COVID-19 Antibodies for 24 Months in Patients With Confirmed SARS-CoV-2 Infection According to the Clinical Severity of the Infection.</t>
-  </si>
-  <si>
-    <t>Follow-up of HBsAg Inactive Carriers Study</t>
-  </si>
-  <si>
-    <t>Study Evaluating SARS-CoV-2 (COVID-19) Humoral Response After BNT162b2 Vaccine in Immunocompromised Adults Compared to Healthy Adults</t>
-  </si>
-  <si>
-    <t>Evaluation of the Impact of Laterality on Cerebral Activation During a Motor Task of the Upper Limb Using fNIRS Technology in Healthy Subjects</t>
-  </si>
-  <si>
-    <t>Relation Between Cortical Activation and Graded Force Level During Robot-assistance Walking in Healthy People : A Functional Near-infrared Spectroscopy Neuroimaging Study.</t>
-  </si>
-  <si>
-    <t>Impact of Prone Position in Patients Under Spontaneous Breathing on Intubation or Non-invasive Ventilation or Death Incidence During COVID-19 Acute Respiratory Distress</t>
+    <t>Effects of Cannabidiol (CBD) on the Activation of Autophagy and Inflammation Genes, Functional Consequences in Virologically Controlled HIV-infected Patients</t>
+  </si>
+  <si>
+    <t>X-rays Trauma Request's by the Triage And Intake Nurse Intake and Referral Nurse: X-TRAIN Study</t>
+  </si>
+  <si>
+    <t>Reproducibility of fNIRS Parameters During Walking in Stroke Patients and Healthy Subjects</t>
+  </si>
+  <si>
+    <t>Reference Curve on Bone Mineral Density in Men</t>
   </si>
   <si>
     <t>Papilocare®: Effects on Regression of Histologically Confirmed Cervical Intraepithelial Lesions 1 and Tolerance.</t>
   </si>
   <si>
-    <t>Reproducibility of fNIRS Parameters During Walking in Stroke Patients and Healthy Subjects</t>
-  </si>
-  <si>
-    <t>Reference Curve on Bone Mineral Density in Men</t>
-  </si>
-  <si>
-    <t>Effects of Cannabidiol (CBD) on the Activation of Autophagy and Inflammation Genes, Functional Consequences in Virologically Controlled HIV-infected Patients</t>
-  </si>
-  <si>
-    <t>X-rays Trauma Request's by the Triage And Intake Nurse Intake and Referral Nurse: X-TRAIN Study</t>
-  </si>
-  <si>
     <t>Pupillometry and Nociception Level Index (NOL-index) for the Evaluation of Pain in Intensive Care Unit. Prospective Study in Two Centers</t>
   </si>
   <si>
+    <t>Validation of Apnea Test Conducted Using High-flow Oxygen Therapy in Patients With Clinical Brain Death</t>
+  </si>
+  <si>
+    <t>Randomized Cross-over Pilot Study Evaluating the Effectiveness of Shiatsu on Fatigue in Patients With Axial Spondyloarthritis</t>
+  </si>
+  <si>
+    <t>Effect of " Sitting in a Chair " Versus " Conventional Semi-recumbent In-bed Position " on the Oxygenation Level for ICU Non-sedated Patients</t>
+  </si>
+  <si>
+    <t>Measurement of Pressures Generated During Different Prone Positions in Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>Pro-inflammatory Role of Extracellular DNA in Inflammatory Bowel Disease in Children: Study of the cGAS-STING Pathway</t>
+  </si>
+  <si>
+    <t>Evaluation of Multisite Sampling to Detect C. Trachomatis or N. Gonorrheae Compared With Vaginal Sampling in Women at Risk for Sexually Transmitted Infections (STI)</t>
+  </si>
+  <si>
     <t>Effects of Different Attentional Focus During Walking on Prefrontal Cortical Activation in Older Adults and Patients With Parkinson's Disease</t>
   </si>
   <si>
-    <t>Pro-inflammatory Role of Extracellular DNA in Inflammatory Bowel Disease in Children: Study of the cGAS-STING Pathway</t>
-  </si>
-  <si>
-    <t>Measurement of Pressures Generated During Different Prone Positions in Healthy Volunteers</t>
-  </si>
-  <si>
-    <t>Evaluation of Multisite Sampling to Detect C. Trachomatis or N. Gonorrheae Compared With Vaginal Sampling in Women at Risk for Sexually Transmitted Infections (STI)</t>
-  </si>
-  <si>
-    <t>Validation of Apnea Test Conducted Using High-flow Oxygen Therapy in Patients With Clinical Brain Death</t>
-  </si>
-  <si>
     <t>Effect of Vibratory Tendon Stimulation on Muscle Fatigue in the Acute Post-stroke Phase : Vibramain1</t>
   </si>
   <si>
-    <t>Randomized Cross-over Pilot Study Evaluating the Effectiveness of Shiatsu on Fatigue in Patients With Axial Spondyloarthritis</t>
-  </si>
-  <si>
     <t>Effect of Virtual Reality Combined With Cycloergometer Versus Conventional Cycloergometer on Distance for ICU Non-sedated Participants: Prospective Randomized Controlled Trial</t>
   </si>
   <si>
-    <t>Effect of " Sitting in a Chair " Versus " Conventional Semi-recumbent In-bed Position " on the Oxygenation Level for ICU Non-sedated Patients</t>
+    <t>GALIGPARK</t>
   </si>
   <si>
     <t>LUPUS</t>
   </si>
   <si>
-    <t>GALIGPARK</t>
-  </si>
-  <si>
     <t>PROMOREA1</t>
   </si>
   <si>
@@ -406,129 +406,129 @@
     <t>qSOFAST</t>
   </si>
   <si>
+    <t>ODEPHI</t>
+  </si>
+  <si>
+    <t>MILAR</t>
+  </si>
+  <si>
     <t>LEHRS</t>
   </si>
   <si>
+    <t>CODEX</t>
+  </si>
+  <si>
     <t>EMIP</t>
   </si>
   <si>
-    <t>MILAR</t>
-  </si>
-  <si>
     <t>MUSIC-CAT</t>
   </si>
   <si>
-    <t>CODEX</t>
-  </si>
-  <si>
-    <t>ODEPHI</t>
+    <t>PHENAD</t>
   </si>
   <si>
     <t>ObiWEAN</t>
   </si>
   <si>
+    <t>COVID-VIRO</t>
+  </si>
+  <si>
+    <t>ISTPOOL</t>
+  </si>
+  <si>
     <t>H-CORT</t>
   </si>
   <si>
-    <t>PHENAD</t>
-  </si>
-  <si>
     <t>CFR-OR</t>
   </si>
   <si>
-    <t>COVID-VIRO</t>
-  </si>
-  <si>
-    <t>ISTPOOL</t>
+    <t>LISSE1</t>
+  </si>
+  <si>
+    <t>STARGAC</t>
+  </si>
+  <si>
+    <t>ACTIBARIA</t>
+  </si>
+  <si>
+    <t>PANIC</t>
+  </si>
+  <si>
+    <t>ARTHEMIRS</t>
+  </si>
+  <si>
+    <t>OXYSENIOR</t>
   </si>
   <si>
     <t>AttNIRS</t>
   </si>
   <si>
-    <t>OXYSENIOR</t>
-  </si>
-  <si>
-    <t>ACTIBARIA</t>
-  </si>
-  <si>
-    <t>LISSE1</t>
-  </si>
-  <si>
-    <t>ARTHEMIRS</t>
-  </si>
-  <si>
-    <t>PANIC</t>
-  </si>
-  <si>
-    <t>STARGAC</t>
+    <t>ABCOVID</t>
+  </si>
+  <si>
+    <t>Lateralinirs</t>
+  </si>
+  <si>
+    <t>PROVID-19</t>
+  </si>
+  <si>
+    <t>PIBAC</t>
+  </si>
+  <si>
+    <t>ExoNIRS</t>
+  </si>
+  <si>
+    <t>EREVA</t>
   </si>
   <si>
     <t>PRHOXY-1</t>
   </si>
   <si>
-    <t>ABCOVID</t>
-  </si>
-  <si>
-    <t>PIBAC</t>
-  </si>
-  <si>
-    <t>EREVA</t>
-  </si>
-  <si>
-    <t>Lateralinirs</t>
-  </si>
-  <si>
-    <t>ExoNIRS</t>
-  </si>
-  <si>
-    <t>PROVID-19</t>
+    <t>GALIG-CBD</t>
+  </si>
+  <si>
+    <t>DARIO</t>
+  </si>
+  <si>
+    <t>REPROXY</t>
+  </si>
+  <si>
+    <t>COURDO2</t>
   </si>
   <si>
     <t>PAPILOCARE</t>
   </si>
   <si>
-    <t>REPROXY</t>
-  </si>
-  <si>
-    <t>COURDO2</t>
-  </si>
-  <si>
-    <t>GALIG-CBD</t>
-  </si>
-  <si>
-    <t>DARIO</t>
-  </si>
-  <si>
     <t>NOCI-ICU</t>
   </si>
   <si>
+    <t>APNEAFLOW</t>
+  </si>
+  <si>
+    <t>SFASPA</t>
+  </si>
+  <si>
+    <t>FALCON</t>
+  </si>
+  <si>
+    <t>HEALTHY-PRONE</t>
+  </si>
+  <si>
+    <t>ROXANE</t>
+  </si>
+  <si>
+    <t>SIST'RS</t>
+  </si>
+  <si>
     <t>AttPark</t>
   </si>
   <si>
-    <t>ROXANE</t>
-  </si>
-  <si>
-    <t>HEALTHY-PRONE</t>
-  </si>
-  <si>
-    <t>SIST'RS</t>
-  </si>
-  <si>
-    <t>APNEAFLOW</t>
-  </si>
-  <si>
     <t>VIBRAMAIN1</t>
   </si>
   <si>
-    <t>SFASPA</t>
-  </si>
-  <si>
     <t>CYCLOREA</t>
   </si>
   <si>
-    <t>FALCON</t>
-  </si>
-  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -547,10 +547,10 @@
     <t>RADIATION</t>
   </si>
   <si>
+    <t>BEHAVIORAL</t>
+  </si>
+  <si>
     <t>BIOLOGICAL</t>
-  </si>
-  <si>
-    <t>BEHAVIORAL</t>
   </si>
 </sst>
 </file>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -1124,7 +1124,7 @@
         <v>130</v>
       </c>
       <c r="I9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1147,7 +1147,7 @@
         <v>131</v>
       </c>
       <c r="I10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1170,15 +1170,15 @@
         <v>132</v>
       </c>
       <c r="I11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1193,7 +1193,7 @@
         <v>133</v>
       </c>
       <c r="I12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1216,15 +1216,15 @@
         <v>134</v>
       </c>
       <c r="I13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1239,15 +1239,15 @@
         <v>135</v>
       </c>
       <c r="I14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1262,7 +1262,7 @@
         <v>136</v>
       </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1285,15 +1285,15 @@
         <v>137</v>
       </c>
       <c r="I16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -1308,15 +1308,15 @@
         <v>138</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -1354,15 +1354,15 @@
         <v>140</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -1400,7 +1400,7 @@
         <v>142</v>
       </c>
       <c r="I21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1469,7 +1469,7 @@
         <v>145</v>
       </c>
       <c r="I24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1515,7 +1515,7 @@
         <v>147</v>
       </c>
       <c r="I26" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1538,15 +1538,15 @@
         <v>148</v>
       </c>
       <c r="I27" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
@@ -1561,15 +1561,15 @@
         <v>149</v>
       </c>
       <c r="I28" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -1584,15 +1584,15 @@
         <v>150</v>
       </c>
       <c r="I29" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
@@ -1630,7 +1630,7 @@
         <v>152</v>
       </c>
       <c r="I31" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1653,7 +1653,7 @@
         <v>153</v>
       </c>
       <c r="I32" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1676,15 +1676,15 @@
         <v>154</v>
       </c>
       <c r="I33" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
@@ -1699,15 +1699,15 @@
         <v>155</v>
       </c>
       <c r="I34" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
@@ -1722,7 +1722,7 @@
         <v>156</v>
       </c>
       <c r="I35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1768,7 +1768,7 @@
         <v>158</v>
       </c>
       <c r="I37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1791,15 +1791,15 @@
         <v>159</v>
       </c>
       <c r="I38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -1814,7 +1814,7 @@
         <v>160</v>
       </c>
       <c r="I39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1860,7 +1860,7 @@
         <v>162</v>
       </c>
       <c r="I41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1883,7 +1883,7 @@
         <v>163</v>
       </c>
       <c r="I42" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1906,7 +1906,7 @@
         <v>164</v>
       </c>
       <c r="I43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1929,7 +1929,7 @@
         <v>165</v>
       </c>
       <c r="I44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1952,7 +1952,7 @@
         <v>166</v>
       </c>
       <c r="I45" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1975,7 +1975,7 @@
         <v>167</v>
       </c>
       <c r="I46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1998,7 +1998,7 @@
         <v>168</v>
       </c>
       <c r="I47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2044,7 +2044,7 @@
         <v>170</v>
       </c>
       <c r="I49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/04yvax419/liste_essais_cliniques_identifies_04yvax419.xlsx
+++ b/publipostage2/04yvax419/liste_essais_cliniques_identifies_04yvax419.xlsx
@@ -55,16 +55,16 @@
     <t>3</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
   </si>
   <si>
     <t>NCT02923297</t>
@@ -82,28 +82,31 @@
     <t>NCT03095677</t>
   </si>
   <si>
+    <t>NCT03299894</t>
+  </si>
+  <si>
     <t>NCT03316625</t>
   </si>
   <si>
-    <t>NCT03299894</t>
+    <t>NCT03479047</t>
+  </si>
+  <si>
+    <t>NCT03398525</t>
+  </si>
+  <si>
+    <t>NCT03423004</t>
   </si>
   <si>
     <t>NCT03829293</t>
   </si>
   <si>
+    <t>NCT03497078</t>
+  </si>
+  <si>
     <t>NCT03470116</t>
   </si>
   <si>
-    <t>NCT03497078</t>
-  </si>
-  <si>
-    <t>NCT03479047</t>
-  </si>
-  <si>
-    <t>NCT03423004</t>
-  </si>
-  <si>
-    <t>NCT03398525</t>
+    <t>NCT04137302</t>
   </si>
   <si>
     <t>NCT03849508</t>
@@ -112,105 +115,102 @@
     <t>NCT03689309</t>
   </si>
   <si>
+    <t>NCT03586492</t>
+  </si>
+  <si>
+    <t>NCT03568695</t>
+  </si>
+  <si>
     <t>NCT04609969</t>
   </si>
   <si>
-    <t>NCT03568695</t>
-  </si>
-  <si>
-    <t>NCT04137302</t>
-  </si>
-  <si>
-    <t>NCT03586492</t>
+    <t>NCT04269382</t>
+  </si>
+  <si>
+    <t>NCT05050968</t>
+  </si>
+  <si>
+    <t>NCT04757844</t>
   </si>
   <si>
     <t>NCT04704349</t>
   </si>
   <si>
+    <t>NCT04738851</t>
+  </si>
+  <si>
+    <t>NCT04045444</t>
+  </si>
+  <si>
     <t>NCT04629937</t>
   </si>
   <si>
-    <t>NCT05050968</t>
-  </si>
-  <si>
-    <t>NCT04269382</t>
-  </si>
-  <si>
-    <t>NCT04738851</t>
-  </si>
-  <si>
-    <t>NCT04045444</t>
-  </si>
-  <si>
-    <t>NCT04757844</t>
+    <t>NCT03326830</t>
+  </si>
+  <si>
+    <t>NCT02247752</t>
   </si>
   <si>
     <t>NCT04750720</t>
   </si>
   <si>
+    <t>NCT04952766</t>
+  </si>
+  <si>
+    <t>NCT05298943</t>
+  </si>
+  <si>
     <t>NCT05428917</t>
   </si>
   <si>
     <t>NCT04363463</t>
   </si>
   <si>
-    <t>NCT02247752</t>
-  </si>
-  <si>
-    <t>NCT05298943</t>
-  </si>
-  <si>
-    <t>NCT04952766</t>
-  </si>
-  <si>
-    <t>NCT03326830</t>
+    <t>NCT05469841</t>
+  </si>
+  <si>
+    <t>NCT05669157</t>
+  </si>
+  <si>
+    <t>NCT04624568</t>
   </si>
   <si>
     <t>NCT05306249</t>
   </si>
   <si>
-    <t>NCT05669157</t>
+    <t>NCT03400982</t>
   </si>
   <si>
     <t>NCT04882930</t>
   </si>
   <si>
-    <t>NCT03400982</t>
-  </si>
-  <si>
-    <t>NCT04624568</t>
-  </si>
-  <si>
-    <t>NCT05469841</t>
+    <t>NCT05433168</t>
+  </si>
+  <si>
+    <t>NCT05952180</t>
+  </si>
+  <si>
+    <t>NCT06296225</t>
+  </si>
+  <si>
+    <t>NCT06025370</t>
+  </si>
+  <si>
+    <t>NCT05872438</t>
   </si>
   <si>
     <t>NCT05950178</t>
   </si>
   <si>
-    <t>NCT05433168</t>
+    <t>NCT05073874</t>
   </si>
   <si>
     <t>NCT04446559</t>
   </si>
   <si>
-    <t>NCT06025370</t>
-  </si>
-  <si>
     <t>NCT05916274</t>
   </si>
   <si>
-    <t>NCT05872438</t>
-  </si>
-  <si>
-    <t>NCT05073874</t>
-  </si>
-  <si>
-    <t>NCT06296225</t>
-  </si>
-  <si>
-    <t>NCT05952180</t>
-  </si>
-  <si>
     <t>2015</t>
   </si>
   <si>
@@ -256,28 +256,31 @@
     <t>Acute and Chronic Effects of Dynamic Apnea in Healthy Untrained Subjects</t>
   </si>
   <si>
+    <t>Usefulness of Routine qSOFA Calculation at Triage to Fasten Antimicrobial Administration in Patients With Bacterial Infection in the Emergency Department: a Quasi-experimental Study</t>
+  </si>
+  <si>
     <t>Reference Curve on Bone Mineral Density in Young Adult: French Multicenter Study</t>
   </si>
   <si>
-    <t>Usefulness of Routine qSOFA Calculation at Triage to Fasten Antimicrobial Administration in Patients With Bacterial Infection in the Emergency Department: a Quasi-experimental Study</t>
+    <t>Mechanical Ventilation Weaning Prediction Improved by Diaphragmatic Ultrasound Associated With the Rapid Shallow Breathing Index</t>
+  </si>
+  <si>
+    <t>Effect of a Musical Intervention in the Intensive Care Unit During the Implantation of a Central Venous Access or a Dialysis Catheter: A Prospective, Randomized Pilot Study</t>
+  </si>
+  <si>
+    <t>Comparative Study of Molecular Markers in Cutaneous Inflammation Between Psoriatic Lesional Skin and Healthy Non-lesional Skin</t>
   </si>
   <si>
     <t>High-Flow Nasal Oxygenation Versus Standard Oxygenation in Gastrointestinal Endoscopy With Sedation. A Prospective Multicenter Randomized Study</t>
   </si>
   <si>
+    <t>Comparison of Image Quality Between New Collimator LEHRS (General Electric - GE Healthcare) vs Siemens LEHR on Bone Scintigraphy</t>
+  </si>
+  <si>
     <t>MILAR, is a Controlled, Randomised, Comparative, Prospective, Multi-center, Superiority French Clinical Trial Comparing the MacGrath MAC Videolaryngoscope and the MacIntosh Laryngoscope for Oro-tracheal Intubation by Patients With Less Than 2 Criteria of Difficult Intubation in Elective Surgery.</t>
   </si>
   <si>
-    <t>Comparison of Image Quality Between New Collimator LEHRS (General Electric - GE Healthcare) vs Siemens LEHR on Bone Scintigraphy</t>
-  </si>
-  <si>
-    <t>Mechanical Ventilation Weaning Prediction Improved by Diaphragmatic Ultrasound Associated With the Rapid Shallow Breathing Index</t>
-  </si>
-  <si>
-    <t>Comparative Study of Molecular Markers in Cutaneous Inflammation Between Psoriatic Lesional Skin and Healthy Non-lesional Skin</t>
-  </si>
-  <si>
-    <t>Effect of a Musical Intervention in the Intensive Care Unit During the Implantation of a Central Venous Access or a Dialysis Catheter: A Prospective, Randomized Pilot Study</t>
+    <t>Administration of Hydrocortisone in Young Healthy Male Volunteers: Determination of Biomarkers for Distinguishing Between Local and Systemic Pathways</t>
   </si>
   <si>
     <t>Randomized, Double-blind, Controlled Clinical Trial for Comparison of Continuous Phenylephrine Versus Norepinephrine Infusion for Maintenance of Hemodynamic Stability During Cesarean Section Under Spinal Anesthesia</t>
@@ -286,105 +289,102 @@
     <t>High Flow Oxygen During Spontaneous Breathing Trial in Patients With High Weaning Risk Failure: Impact on the Weaning Course at D7 From the First Spontaneous Breathing Trial. A Pilot Randomized Controlled Trial</t>
   </si>
   <si>
+    <t>SPECT Myocardial Perfusion Reserve Using a Cadmium Zinc Telluride (CZT) Camera in Cardiovascular Risk Stratification and Ischemia</t>
+  </si>
+  <si>
+    <t>Detection of Chlamydia Trachomatis, Neisseria Gonorrhoeae and Mycoplasma Genitalium by Real-time Multiplex Polymerase Chain Reaction After Pooling Pharyngeal, Anorectal and Urinary Samples, in Men Who Have Sex With Men</t>
+  </si>
+  <si>
     <t>Diagnostic Performance Evaluation of a Novel SARS-CoV-2 (COVID-19) Antigen Detection Test on Nasopharyngeal Specimens i</t>
   </si>
   <si>
-    <t>Detection of Chlamydia Trachomatis, Neisseria Gonorrhoeae and Mycoplasma Genitalium by Real-time Multiplex Polymerase Chain Reaction After Pooling Pharyngeal, Anorectal and Urinary Samples, in Men Who Have Sex With Men</t>
-  </si>
-  <si>
-    <t>Administration of Hydrocortisone in Young Healthy Male Volunteers: Determination of Biomarkers for Distinguishing Between Local and Systemic Pathways</t>
-  </si>
-  <si>
-    <t>SPECT Myocardial Perfusion Reserve Using a Cadmium Zinc Telluride (CZT) Camera in Cardiovascular Risk Stratification and Ischemia</t>
+    <t>Prospective, Multi-center Evaluation of the Accuracy of Non-invasive Measurement of Blood Pressure Using an Arm, Calf and Finger Cuff.</t>
+  </si>
+  <si>
+    <t>Effects of Controlled Physical Activity on the Fitness, Body Composition and Quality of Life of Obese Women Undergoing Bariatric Surgery</t>
+  </si>
+  <si>
+    <t>The Effects of Different Attentional Focus During Walking on Prefrontal Cortical Activation in Young Healthy Adults</t>
   </si>
   <si>
     <t>Latest Imaging SPECT System Evaluation Phase 1</t>
   </si>
   <si>
+    <t>ARTHEMIRS: Assessment of Brain Activation During Different Mirror Therapy Tasks Using fNIRS Technology</t>
+  </si>
+  <si>
+    <t>Physical Activity Level and Cerebral Oxygenation During Gait in Old People</t>
+  </si>
+  <si>
     <t>Clinical Evaluation of a Multipurpose CZT Camera in Gated Tomographic Radionuclide Angiography: a Head to Head Comparison With a Cardiac Dedicated CZT Device</t>
   </si>
   <si>
-    <t>Effects of Controlled Physical Activity on the Fitness, Body Composition and Quality of Life of Obese Women Undergoing Bariatric Surgery</t>
-  </si>
-  <si>
-    <t>Prospective, Multi-center Evaluation of the Accuracy of Non-invasive Measurement of Blood Pressure Using an Arm, Calf and Finger Cuff.</t>
-  </si>
-  <si>
-    <t>ARTHEMIRS: Assessment of Brain Activation During Different Mirror Therapy Tasks Using fNIRS Technology</t>
-  </si>
-  <si>
-    <t>Physical Activity Level and Cerebral Oxygenation During Gait in Old People</t>
-  </si>
-  <si>
-    <t>The Effects of Different Attentional Focus During Walking on Prefrontal Cortical Activation in Young Healthy Adults</t>
+    <t>Prehospital High-Flow Nasal Oxygen Therapy in Patients With Acute Hypoxemic Respiratory Failure: A Randomized, Open-label, Bi-center, Pilot Study</t>
+  </si>
+  <si>
+    <t>Follow-up of HBsAg Inactive Carriers Study</t>
   </si>
   <si>
     <t>Study of the Kinetics of COVID-19 Antibodies for 24 Months in Patients With Confirmed SARS-CoV-2 Infection According to the Clinical Severity of the Infection.</t>
   </si>
   <si>
+    <t>Study Evaluating SARS-CoV-2 (COVID-19) Humoral Response After BNT162b2 Vaccine in Immunocompromised Adults Compared to Healthy Adults</t>
+  </si>
+  <si>
+    <t>Relation Between Cortical Activation and Graded Force Level During Robot-assistance Walking in Healthy People : A Functional Near-infrared Spectroscopy Neuroimaging Study.</t>
+  </si>
+  <si>
     <t>Evaluation of the Impact of Laterality on Cerebral Activation During a Motor Task of the Upper Limb Using fNIRS Technology in Healthy Subjects</t>
   </si>
   <si>
     <t>Impact of Prone Position in Patients Under Spontaneous Breathing on Intubation or Non-invasive Ventilation or Death Incidence During COVID-19 Acute Respiratory Distress</t>
   </si>
   <si>
-    <t>Follow-up of HBsAg Inactive Carriers Study</t>
-  </si>
-  <si>
-    <t>Relation Between Cortical Activation and Graded Force Level During Robot-assistance Walking in Healthy People : A Functional Near-infrared Spectroscopy Neuroimaging Study.</t>
-  </si>
-  <si>
-    <t>Study Evaluating SARS-CoV-2 (COVID-19) Humoral Response After BNT162b2 Vaccine in Immunocompromised Adults Compared to Healthy Adults</t>
-  </si>
-  <si>
-    <t>Prehospital High-Flow Nasal Oxygen Therapy in Patients With Acute Hypoxemic Respiratory Failure: A Randomized, Open-label, Bi-center, Pilot Study</t>
+    <t>Pupillometry and Nociception Level Index (NOL-index) for the Evaluation of Pain in Intensive Care Unit. Prospective Study in Two Centers</t>
+  </si>
+  <si>
+    <t>X-rays Trauma Request's by the Triage And Intake Nurse Intake and Referral Nurse: X-TRAIN Study</t>
+  </si>
+  <si>
+    <t>Papilocare®: Effects on Regression of Histologically Confirmed Cervical Intraepithelial Lesions 1 and Tolerance.</t>
   </si>
   <si>
     <t>Effects of Cannabidiol (CBD) on the Activation of Autophagy and Inflammation Genes, Functional Consequences in Virologically Controlled HIV-infected Patients</t>
   </si>
   <si>
-    <t>X-rays Trauma Request's by the Triage And Intake Nurse Intake and Referral Nurse: X-TRAIN Study</t>
+    <t>Reference Curve on Bone Mineral Density in Men</t>
   </si>
   <si>
     <t>Reproducibility of fNIRS Parameters During Walking in Stroke Patients and Healthy Subjects</t>
   </si>
   <si>
-    <t>Reference Curve on Bone Mineral Density in Men</t>
-  </si>
-  <si>
-    <t>Papilocare®: Effects on Regression of Histologically Confirmed Cervical Intraepithelial Lesions 1 and Tolerance.</t>
-  </si>
-  <si>
-    <t>Pupillometry and Nociception Level Index (NOL-index) for the Evaluation of Pain in Intensive Care Unit. Prospective Study in Two Centers</t>
+    <t>Randomized Cross-over Pilot Study Evaluating the Effectiveness of Shiatsu on Fatigue in Patients With Axial Spondyloarthritis</t>
+  </si>
+  <si>
+    <t>Effect of Virtual Reality Combined With Cycloergometer Versus Conventional Cycloergometer on Distance for ICU Non-sedated Participants: Prospective Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Effect of Vibratory Tendon Stimulation on Muscle Fatigue in the Acute Post-stroke Phase : Vibramain1</t>
+  </si>
+  <si>
+    <t>Measurement of Pressures Generated During Different Prone Positions in Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>Evaluation of Multisite Sampling to Detect C. Trachomatis or N. Gonorrheae Compared With Vaginal Sampling in Women at Risk for Sexually Transmitted Infections (STI)</t>
   </si>
   <si>
     <t>Validation of Apnea Test Conducted Using High-flow Oxygen Therapy in Patients With Clinical Brain Death</t>
   </si>
   <si>
-    <t>Randomized Cross-over Pilot Study Evaluating the Effectiveness of Shiatsu on Fatigue in Patients With Axial Spondyloarthritis</t>
+    <t>Effects of Different Attentional Focus During Walking on Prefrontal Cortical Activation in Older Adults and Patients With Parkinson's Disease</t>
   </si>
   <si>
     <t>Effect of " Sitting in a Chair " Versus " Conventional Semi-recumbent In-bed Position " on the Oxygenation Level for ICU Non-sedated Patients</t>
   </si>
   <si>
-    <t>Measurement of Pressures Generated During Different Prone Positions in Healthy Volunteers</t>
-  </si>
-  <si>
     <t>Pro-inflammatory Role of Extracellular DNA in Inflammatory Bowel Disease in Children: Study of the cGAS-STING Pathway</t>
   </si>
   <si>
-    <t>Evaluation of Multisite Sampling to Detect C. Trachomatis or N. Gonorrheae Compared With Vaginal Sampling in Women at Risk for Sexually Transmitted Infections (STI)</t>
-  </si>
-  <si>
-    <t>Effects of Different Attentional Focus During Walking on Prefrontal Cortical Activation in Older Adults and Patients With Parkinson's Disease</t>
-  </si>
-  <si>
-    <t>Effect of Vibratory Tendon Stimulation on Muscle Fatigue in the Acute Post-stroke Phase : Vibramain1</t>
-  </si>
-  <si>
-    <t>Effect of Virtual Reality Combined With Cycloergometer Versus Conventional Cycloergometer on Distance for ICU Non-sedated Participants: Prospective Randomized Controlled Trial</t>
-  </si>
-  <si>
     <t>GALIGPARK</t>
   </si>
   <si>
@@ -400,28 +400,31 @@
     <t>APNEX</t>
   </si>
   <si>
+    <t>qSOFAST</t>
+  </si>
+  <si>
     <t>COURDO</t>
   </si>
   <si>
-    <t>qSOFAST</t>
+    <t>CODEX</t>
+  </si>
+  <si>
+    <t>MUSIC-CAT</t>
+  </si>
+  <si>
+    <t>EMIP</t>
   </si>
   <si>
     <t>ODEPHI</t>
   </si>
   <si>
+    <t>LEHRS</t>
+  </si>
+  <si>
     <t>MILAR</t>
   </si>
   <si>
-    <t>LEHRS</t>
-  </si>
-  <si>
-    <t>CODEX</t>
-  </si>
-  <si>
-    <t>EMIP</t>
-  </si>
-  <si>
-    <t>MUSIC-CAT</t>
+    <t>H-CORT</t>
   </si>
   <si>
     <t>PHENAD</t>
@@ -430,114 +433,111 @@
     <t>ObiWEAN</t>
   </si>
   <si>
+    <t>CFR-OR</t>
+  </si>
+  <si>
+    <t>ISTPOOL</t>
+  </si>
+  <si>
     <t>COVID-VIRO</t>
   </si>
   <si>
-    <t>ISTPOOL</t>
-  </si>
-  <si>
-    <t>H-CORT</t>
-  </si>
-  <si>
-    <t>CFR-OR</t>
+    <t>PANIC</t>
+  </si>
+  <si>
+    <t>ACTIBARIA</t>
+  </si>
+  <si>
+    <t>AttNIRS</t>
   </si>
   <si>
     <t>LISSE1</t>
   </si>
   <si>
+    <t>ARTHEMIRS</t>
+  </si>
+  <si>
+    <t>OXYSENIOR</t>
+  </si>
+  <si>
     <t>STARGAC</t>
   </si>
   <si>
-    <t>ACTIBARIA</t>
-  </si>
-  <si>
-    <t>PANIC</t>
-  </si>
-  <si>
-    <t>ARTHEMIRS</t>
-  </si>
-  <si>
-    <t>OXYSENIOR</t>
-  </si>
-  <si>
-    <t>AttNIRS</t>
+    <t>PRHOXY-1</t>
+  </si>
+  <si>
+    <t>PIBAC</t>
   </si>
   <si>
     <t>ABCOVID</t>
   </si>
   <si>
+    <t>EREVA</t>
+  </si>
+  <si>
+    <t>ExoNIRS</t>
+  </si>
+  <si>
     <t>Lateralinirs</t>
   </si>
   <si>
     <t>PROVID-19</t>
   </si>
   <si>
-    <t>PIBAC</t>
-  </si>
-  <si>
-    <t>ExoNIRS</t>
-  </si>
-  <si>
-    <t>EREVA</t>
-  </si>
-  <si>
-    <t>PRHOXY-1</t>
+    <t>NOCI-ICU</t>
+  </si>
+  <si>
+    <t>DARIO</t>
+  </si>
+  <si>
+    <t>PAPILOCARE</t>
   </si>
   <si>
     <t>GALIG-CBD</t>
   </si>
   <si>
-    <t>DARIO</t>
+    <t>COURDO2</t>
   </si>
   <si>
     <t>REPROXY</t>
   </si>
   <si>
-    <t>COURDO2</t>
-  </si>
-  <si>
-    <t>PAPILOCARE</t>
-  </si>
-  <si>
-    <t>NOCI-ICU</t>
+    <t>SFASPA</t>
+  </si>
+  <si>
+    <t>CYCLOREA</t>
+  </si>
+  <si>
+    <t>VIBRAMAIN1</t>
+  </si>
+  <si>
+    <t>HEALTHY-PRONE</t>
+  </si>
+  <si>
+    <t>SIST'RS</t>
   </si>
   <si>
     <t>APNEAFLOW</t>
   </si>
   <si>
-    <t>SFASPA</t>
+    <t>AttPark</t>
   </si>
   <si>
     <t>FALCON</t>
   </si>
   <si>
-    <t>HEALTHY-PRONE</t>
-  </si>
-  <si>
     <t>ROXANE</t>
   </si>
   <si>
-    <t>SIST'RS</t>
-  </si>
-  <si>
-    <t>AttPark</t>
-  </si>
-  <si>
-    <t>VIBRAMAIN1</t>
-  </si>
-  <si>
-    <t>CYCLOREA</t>
-  </si>
-  <si>
     <t>OTHER</t>
   </si>
   <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
     <t>DIAGNOSTIC_TEST</t>
   </si>
   <si>
-    <t>PROCEDURE</t>
-  </si>
-  <si>
     <t>DEVICE</t>
   </si>
   <si>
@@ -547,10 +547,10 @@
     <t>RADIATION</t>
   </si>
   <si>
+    <t>BIOLOGICAL</t>
+  </si>
+  <si>
     <t>BEHAVIORAL</t>
-  </si>
-  <si>
-    <t>BIOLOGICAL</t>
   </si>
 </sst>
 </file>
@@ -1060,10 +1060,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -1124,15 +1124,15 @@
         <v>130</v>
       </c>
       <c r="I9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1147,7 +1147,7 @@
         <v>131</v>
       </c>
       <c r="I10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1170,15 +1170,15 @@
         <v>132</v>
       </c>
       <c r="I11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1193,7 +1193,7 @@
         <v>133</v>
       </c>
       <c r="I12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1216,15 +1216,15 @@
         <v>134</v>
       </c>
       <c r="I13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1239,15 +1239,15 @@
         <v>135</v>
       </c>
       <c r="I14" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -1285,7 +1285,7 @@
         <v>137</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1313,10 +1313,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -1331,15 +1331,15 @@
         <v>139</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -1354,7 +1354,7 @@
         <v>140</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1377,7 +1377,7 @@
         <v>141</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1400,7 +1400,7 @@
         <v>142</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1446,7 +1446,7 @@
         <v>144</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1469,7 +1469,7 @@
         <v>145</v>
       </c>
       <c r="I24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1538,15 +1538,15 @@
         <v>148</v>
       </c>
       <c r="I27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
@@ -1561,7 +1561,7 @@
         <v>149</v>
       </c>
       <c r="I28" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1584,7 +1584,7 @@
         <v>150</v>
       </c>
       <c r="I29" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1630,7 +1630,7 @@
         <v>152</v>
       </c>
       <c r="I31" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1681,10 +1681,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
@@ -1699,7 +1699,7 @@
         <v>155</v>
       </c>
       <c r="I34" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1722,7 +1722,7 @@
         <v>156</v>
       </c>
       <c r="I35" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1745,15 +1745,15 @@
         <v>157</v>
       </c>
       <c r="I36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
@@ -1768,7 +1768,7 @@
         <v>158</v>
       </c>
       <c r="I37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1791,15 +1791,15 @@
         <v>159</v>
       </c>
       <c r="I38" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -1814,7 +1814,7 @@
         <v>160</v>
       </c>
       <c r="I39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1837,7 +1837,7 @@
         <v>161</v>
       </c>
       <c r="I40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1883,7 +1883,7 @@
         <v>163</v>
       </c>
       <c r="I42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1906,7 +1906,7 @@
         <v>164</v>
       </c>
       <c r="I43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1952,7 +1952,7 @@
         <v>166</v>
       </c>
       <c r="I45" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1975,7 +1975,7 @@
         <v>167</v>
       </c>
       <c r="I46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2021,7 +2021,7 @@
         <v>169</v>
       </c>
       <c r="I48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2044,7 +2044,7 @@
         <v>170</v>
       </c>
       <c r="I49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
